--- a/VALE.xlsx
+++ b/VALE.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="712">
   <si>
     <t>VALE.Open</t>
   </si>
@@ -2100,6 +2100,54 @@
   </si>
   <si>
     <t>2020-09-28</t>
+  </si>
+  <si>
+    <t>2020-09-29</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-10-01</t>
+  </si>
+  <si>
+    <t>2020-10-02</t>
+  </si>
+  <si>
+    <t>2020-10-05</t>
+  </si>
+  <si>
+    <t>2020-10-06</t>
+  </si>
+  <si>
+    <t>2020-10-07</t>
+  </si>
+  <si>
+    <t>2020-10-08</t>
+  </si>
+  <si>
+    <t>2020-10-09</t>
+  </si>
+  <si>
+    <t>2020-10-12</t>
+  </si>
+  <si>
+    <t>2020-10-13</t>
+  </si>
+  <si>
+    <t>2020-10-14</t>
+  </si>
+  <si>
+    <t>2020-10-15</t>
+  </si>
+  <si>
+    <t>2020-10-16</t>
+  </si>
+  <si>
+    <t>2020-10-19</t>
+  </si>
+  <si>
+    <t>2020-10-20</t>
   </si>
 </sst>
 </file>
@@ -18035,10 +18083,378 @@
         <v>10.49</v>
       </c>
       <c r="F691" t="n">
-        <v>3.77169E7</v>
+        <v>3.77269E7</v>
       </c>
       <c r="G691" t="n">
         <v>10.49</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="s">
+        <v>696</v>
+      </c>
+      <c r="B692" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="C692" t="n">
+        <v>10.72</v>
+      </c>
+      <c r="D692" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="E692" t="n">
+        <v>10.41</v>
+      </c>
+      <c r="F692" t="n">
+        <v>2.84346E7</v>
+      </c>
+      <c r="G692" t="n">
+        <v>10.41</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="s">
+        <v>697</v>
+      </c>
+      <c r="B693" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="C693" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="D693" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="E693" t="n">
+        <v>10.58</v>
+      </c>
+      <c r="F693" t="n">
+        <v>2.73033E7</v>
+      </c>
+      <c r="G693" t="n">
+        <v>10.58</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="s">
+        <v>698</v>
+      </c>
+      <c r="B694" t="n">
+        <v>10.58</v>
+      </c>
+      <c r="C694" t="n">
+        <v>10.62</v>
+      </c>
+      <c r="D694" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="E694" t="n">
+        <v>10.41</v>
+      </c>
+      <c r="F694" t="n">
+        <v>2.15435E7</v>
+      </c>
+      <c r="G694" t="n">
+        <v>10.41</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="s">
+        <v>699</v>
+      </c>
+      <c r="B695" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="C695" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="D695" t="n">
+        <v>10.31</v>
+      </c>
+      <c r="E695" t="n">
+        <v>10.39</v>
+      </c>
+      <c r="F695" t="n">
+        <v>2.48278E7</v>
+      </c>
+      <c r="G695" t="n">
+        <v>10.39</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="s">
+        <v>700</v>
+      </c>
+      <c r="B696" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="C696" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="D696" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="E696" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="F696" t="n">
+        <v>2.34055E7</v>
+      </c>
+      <c r="G696" t="n">
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="s">
+        <v>701</v>
+      </c>
+      <c r="B697" t="n">
+        <v>10.87</v>
+      </c>
+      <c r="C697" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="D697" t="n">
+        <v>10.43</v>
+      </c>
+      <c r="E697" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="F697" t="n">
+        <v>2.52284E7</v>
+      </c>
+      <c r="G697" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="s">
+        <v>702</v>
+      </c>
+      <c r="B698" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="C698" t="n">
+        <v>10.88</v>
+      </c>
+      <c r="D698" t="n">
+        <v>10.58</v>
+      </c>
+      <c r="E698" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="F698" t="n">
+        <v>3.03044E7</v>
+      </c>
+      <c r="G698" t="n">
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="s">
+        <v>703</v>
+      </c>
+      <c r="B699" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="C699" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="D699" t="n">
+        <v>10.71</v>
+      </c>
+      <c r="E699" t="n">
+        <v>11.05</v>
+      </c>
+      <c r="F699" t="n">
+        <v>2.83578E7</v>
+      </c>
+      <c r="G699" t="n">
+        <v>11.05</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="s">
+        <v>704</v>
+      </c>
+      <c r="B700" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="C700" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="D700" t="n">
+        <v>11.05</v>
+      </c>
+      <c r="E700" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="F700" t="n">
+        <v>2.62332E7</v>
+      </c>
+      <c r="G700" t="n">
+        <v>11.19</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="s">
+        <v>705</v>
+      </c>
+      <c r="B701" t="n">
+        <v>11.27</v>
+      </c>
+      <c r="C701" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D701" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="E701" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="F701" t="n">
+        <v>1.49063E7</v>
+      </c>
+      <c r="G701" t="n">
+        <v>11.22</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="s">
+        <v>706</v>
+      </c>
+      <c r="B702" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="C702" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="D702" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="E702" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="F702" t="n">
+        <v>2.24605E7</v>
+      </c>
+      <c r="G702" t="n">
+        <v>11.21</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="s">
+        <v>707</v>
+      </c>
+      <c r="B703" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="C703" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="D703" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="E703" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="F703" t="n">
+        <v>2.88138E7</v>
+      </c>
+      <c r="G703" t="n">
+        <v>11.34</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="s">
+        <v>708</v>
+      </c>
+      <c r="B704" t="n">
+        <v>11.13</v>
+      </c>
+      <c r="C704" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="D704" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="E704" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="F704" t="n">
+        <v>1.6506E7</v>
+      </c>
+      <c r="G704" t="n">
+        <v>11.18</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="s">
+        <v>709</v>
+      </c>
+      <c r="B705" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="C705" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="D705" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="E705" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="F705" t="n">
+        <v>1.18703E7</v>
+      </c>
+      <c r="G705" t="n">
+        <v>11.09</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="s">
+        <v>710</v>
+      </c>
+      <c r="B706" t="n">
+        <v>11.17</v>
+      </c>
+      <c r="C706" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="D706" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="E706" t="n">
+        <v>11.13</v>
+      </c>
+      <c r="F706" t="n">
+        <v>1.64804E7</v>
+      </c>
+      <c r="G706" t="n">
+        <v>11.13</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="s">
+        <v>711</v>
+      </c>
+      <c r="B707" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="C707" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="D707" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="E707" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="F707" t="n">
+        <v>1.76139E7</v>
+      </c>
+      <c r="G707" t="n">
+        <v>11.09</v>
       </c>
     </row>
   </sheetData>

--- a/VALE.xlsx
+++ b/VALE.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="876">
   <si>
     <t>VALE.Open</t>
   </si>
@@ -2607,6 +2607,39 @@
   </si>
   <si>
     <t>2021-06-01</t>
+  </si>
+  <si>
+    <t>2021-06-02</t>
+  </si>
+  <si>
+    <t>2021-06-03</t>
+  </si>
+  <si>
+    <t>2021-06-04</t>
+  </si>
+  <si>
+    <t>2021-06-07</t>
+  </si>
+  <si>
+    <t>2021-06-08</t>
+  </si>
+  <si>
+    <t>2021-06-09</t>
+  </si>
+  <si>
+    <t>2021-06-10</t>
+  </si>
+  <si>
+    <t>2021-06-11</t>
+  </si>
+  <si>
+    <t>2021-06-14</t>
+  </si>
+  <si>
+    <t>2021-06-15</t>
+  </si>
+  <si>
+    <t>2021-06-16</t>
   </si>
 </sst>
 </file>
@@ -22429,10 +22462,263 @@
         <v>22.200001</v>
       </c>
       <c r="F860" t="n">
-        <v>4.15075E7</v>
+        <v>4.15121E7</v>
       </c>
       <c r="G860" t="n">
         <v>22.200001</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="s">
+        <v>865</v>
+      </c>
+      <c r="B861" t="n">
+        <v>22.040001</v>
+      </c>
+      <c r="C861" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="D861" t="n">
+        <v>21.98</v>
+      </c>
+      <c r="E861" t="n">
+        <v>22.67</v>
+      </c>
+      <c r="F861" t="n">
+        <v>4.34094E7</v>
+      </c>
+      <c r="G861" t="n">
+        <v>22.67</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="s">
+        <v>866</v>
+      </c>
+      <c r="B862" t="n">
+        <v>22.389999</v>
+      </c>
+      <c r="C862" t="n">
+        <v>22.49</v>
+      </c>
+      <c r="D862" t="n">
+        <v>22.01</v>
+      </c>
+      <c r="E862" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="F862" t="n">
+        <v>2.59246E7</v>
+      </c>
+      <c r="G862" t="n">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="s">
+        <v>867</v>
+      </c>
+      <c r="B863" t="n">
+        <v>22.68</v>
+      </c>
+      <c r="C863" t="n">
+        <v>22.690001</v>
+      </c>
+      <c r="D863" t="n">
+        <v>22.26</v>
+      </c>
+      <c r="E863" t="n">
+        <v>22.450001</v>
+      </c>
+      <c r="F863" t="n">
+        <v>2.06782E7</v>
+      </c>
+      <c r="G863" t="n">
+        <v>22.450001</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="s">
+        <v>868</v>
+      </c>
+      <c r="B864" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="C864" t="n">
+        <v>22.360001</v>
+      </c>
+      <c r="D864" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="E864" t="n">
+        <v>22.280001</v>
+      </c>
+      <c r="F864" t="n">
+        <v>2.75006E7</v>
+      </c>
+      <c r="G864" t="n">
+        <v>22.280001</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="s">
+        <v>869</v>
+      </c>
+      <c r="B865" t="n">
+        <v>22.200001</v>
+      </c>
+      <c r="C865" t="n">
+        <v>22.27</v>
+      </c>
+      <c r="D865" t="n">
+        <v>21.790001</v>
+      </c>
+      <c r="E865" t="n">
+        <v>21.879999</v>
+      </c>
+      <c r="F865" t="n">
+        <v>2.6471E7</v>
+      </c>
+      <c r="G865" t="n">
+        <v>21.879999</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="s">
+        <v>870</v>
+      </c>
+      <c r="B866" t="n">
+        <v>21.950001</v>
+      </c>
+      <c r="C866" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="D866" t="n">
+        <v>21.85</v>
+      </c>
+      <c r="E866" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="F866" t="n">
+        <v>3.11676E7</v>
+      </c>
+      <c r="G866" t="n">
+        <v>22.15</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="s">
+        <v>871</v>
+      </c>
+      <c r="B867" t="n">
+        <v>22.129999</v>
+      </c>
+      <c r="C867" t="n">
+        <v>22.370001</v>
+      </c>
+      <c r="D867" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="E867" t="n">
+        <v>22.23</v>
+      </c>
+      <c r="F867" t="n">
+        <v>3.44216E7</v>
+      </c>
+      <c r="G867" t="n">
+        <v>22.23</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="s">
+        <v>872</v>
+      </c>
+      <c r="B868" t="n">
+        <v>22.379999</v>
+      </c>
+      <c r="C868" t="n">
+        <v>22.48</v>
+      </c>
+      <c r="D868" t="n">
+        <v>22.139999</v>
+      </c>
+      <c r="E868" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="F868" t="n">
+        <v>2.26493E7</v>
+      </c>
+      <c r="G868" t="n">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="s">
+        <v>873</v>
+      </c>
+      <c r="B869" t="n">
+        <v>22.559999</v>
+      </c>
+      <c r="C869" t="n">
+        <v>22.73</v>
+      </c>
+      <c r="D869" t="n">
+        <v>22.27</v>
+      </c>
+      <c r="E869" t="n">
+        <v>22.530001</v>
+      </c>
+      <c r="F869" t="n">
+        <v>2.5956E7</v>
+      </c>
+      <c r="G869" t="n">
+        <v>22.530001</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="s">
+        <v>874</v>
+      </c>
+      <c r="B870" t="n">
+        <v>22.309999</v>
+      </c>
+      <c r="C870" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="D870" t="n">
+        <v>21.879999</v>
+      </c>
+      <c r="E870" t="n">
+        <v>22.139999</v>
+      </c>
+      <c r="F870" t="n">
+        <v>3.09665E7</v>
+      </c>
+      <c r="G870" t="n">
+        <v>22.139999</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="s">
+        <v>875</v>
+      </c>
+      <c r="B871" t="n">
+        <v>21.83</v>
+      </c>
+      <c r="C871" t="n">
+        <v>21.860001</v>
+      </c>
+      <c r="D871" t="n">
+        <v>21.290001</v>
+      </c>
+      <c r="E871" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="F871" t="n">
+        <v>3.253E7</v>
+      </c>
+      <c r="G871" t="n">
+        <v>21.49</v>
       </c>
     </row>
   </sheetData>
